--- a/dist/data/profiles/xlsx/bluff/profile 31-5 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 31-5 graph.xlsx
@@ -19431,11 +19431,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="19017669"/>
-        <c:axId val="91280028"/>
+        <c:axId val="80673469"/>
+        <c:axId val="94305903"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19017669"/>
+        <c:axId val="80673469"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19470,12 +19470,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91280028"/>
+        <c:crossAx val="94305903"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91280028"/>
+        <c:axId val="94305903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19519,7 +19519,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19017669"/>
+        <c:crossAx val="80673469"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
